--- a/02_meter_data/ghg_sat_cloudy_overpasses.xlsx
+++ b/02_meter_data/ghg_sat_cloudy_overpasses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sea/PycharmProjects/CRF22_Airplanes/02_meter_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7647F14-0090-FD42-87C6-6B49C454B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C2BB3-ED4F-1D40-A8AD-1E400759A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="1700" windowWidth="27240" windowHeight="16440" xr2:uid="{E7C09C9C-2BED-7F46-BAF8-DF924394B9FD}"/>
   </bookViews>
@@ -663,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CDE-8C3C-0848-9E36-0208658FC25B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
